--- a/data/trans_dic/P19C10_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,7 +986,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.002149722033605552</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.006917946305872774</v>
+        <v>0.006917946305872776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.004394094877449955</v>
+        <v>0.004394094877449956</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00231292040336198</v>
+        <v>0.00169687523020859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001497578879738575</v>
+        <v>0.001689717161967155</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01146465005233069</v>
+        <v>0.01106510972218575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01789151334079914</v>
+        <v>0.01872636242186194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.009754293073424396</v>
+        <v>0.01132643643370242</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.002462969799018257</v>
+        <v>0.002462969799018256</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.008388632509024547</v>
+        <v>0.00838863250902455</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.005223011147576621</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002897401449107335</v>
+        <v>0.002512427243676897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001913679509326483</v>
+        <v>0.002011670511589721</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01164439960271732</v>
+        <v>0.01398301371718475</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01892904597120831</v>
+        <v>0.02015272344817299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0114050899041358</v>
+        <v>0.01125089632366129</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004074133671341796</v>
+        <v>0.003945349169546846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003161607252273241</v>
+        <v>0.003118139137370583</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01840637712167637</v>
+        <v>0.01968663275930231</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05399731400110756</v>
+        <v>0.04417196484580027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01969158523274175</v>
+        <v>0.01932828234004617</v>
       </c>
     </row>
     <row r="13">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0008152033500188438</v>
+        <v>0.00081882388008091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0004986167645578411</v>
+        <v>0.0003620732780295114</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.004418152903279965</v>
+        <v>0.004740112787993619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.008609109202694259</v>
+        <v>0.00808472128678756</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.004890842301349531</v>
+        <v>0.004353481588679776</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.005955049813420335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.004663336570081691</v>
+        <v>0.00466333657008169</v>
       </c>
     </row>
     <row r="17">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002602156642301468</v>
+        <v>0.002597487516438169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002042770263001629</v>
+        <v>0.00208752862473149</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01320916945629636</v>
+        <v>0.01212681635699023</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01164445685160277</v>
+        <v>0.01198514781916023</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.009515154752516965</v>
+        <v>0.00948266990491458</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00334368238958632</v>
+        <v>0.003429744815879098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003443498878454882</v>
+        <v>0.003254671943128882</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03932694549226933</v>
+        <v>0.03838163161407948</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01399115117151789</v>
+        <v>0.01309084266714748</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0143712506321294</v>
+        <v>0.01448249113804196</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.002700495804045855</v>
+        <v>0.002700495804045854</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.006505240614757232</v>
+        <v>0.006505240614757233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.004663232255130274</v>
+        <v>0.004663232255130275</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001126688994995358</v>
+        <v>0.001066314025447654</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004508521049691086</v>
+        <v>0.004347230100632494</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003173069357233129</v>
+        <v>0.003289102473135863</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.005416160367795931</v>
+        <v>0.00522155780005432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.009393313903157197</v>
+        <v>0.009080689722328426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.006436465592272181</v>
+        <v>0.006521377660182756</v>
       </c>
     </row>
     <row r="25">
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1113</v>
+        <v>817</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1531</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6205</v>
+        <v>5989</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8612</v>
+        <v>9014</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9975</v>
+        <v>11582</v>
       </c>
     </row>
     <row r="8">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1211</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1717</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5582</v>
+        <v>6703</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7911</v>
+        <v>8422</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10233</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="12">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2051</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8538</v>
+        <v>9132</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9980</v>
+        <v>8164</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12774</v>
+        <v>12538</v>
       </c>
     </row>
     <row r="16">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>964</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4841</v>
+        <v>5194</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7204</v>
+        <v>6765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9451</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="20">
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2662</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6735</v>
+        <v>6183</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9240</v>
+        <v>9510</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12402</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2738</v>
+        <v>2808</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3597</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8880</v>
+        <v>8666</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11455</v>
+        <v>10718</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15011</v>
+        <v>15127</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3736</v>
+        <v>3536</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15929</v>
+        <v>15359</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21732</v>
+        <v>22527</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17959</v>
+        <v>17314</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>33188</v>
+        <v>32083</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44083</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="32">
